--- a/data/trans_orig/P44-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P44-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>6955</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2880</v>
+        <v>3537</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13651</v>
+        <v>14300</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08134551944903302</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03368844948783689</v>
+        <v>0.04137390005956931</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1596637451883101</v>
+        <v>0.1672616329014925</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -764,19 +764,19 @@
         <v>11070</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5339</v>
+        <v>6074</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19322</v>
+        <v>20238</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1072014176865741</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05170622420598042</v>
+        <v>0.05881563303984451</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1871077789734251</v>
+        <v>0.1959807564371676</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -785,19 +785,19 @@
         <v>18025</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10941</v>
+        <v>11285</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>28210</v>
+        <v>29120</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09549042737235124</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05795956377593535</v>
+        <v>0.05978378711266975</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1494469446787005</v>
+        <v>0.1542674568653218</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>78542</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>71846</v>
+        <v>71197</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>82617</v>
+        <v>81960</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.918654480550967</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8403362548116899</v>
+        <v>0.832738367098507</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9663115505121631</v>
+        <v>0.9586260999404307</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>83</v>
@@ -835,19 +835,19 @@
         <v>92196</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>83944</v>
+        <v>83028</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>97927</v>
+        <v>97192</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8927985823134259</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8128922210265755</v>
+        <v>0.8040192435628326</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9482937757940197</v>
+        <v>0.9411843669601555</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>155</v>
@@ -856,19 +856,19 @@
         <v>170737</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>160552</v>
+        <v>159642</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>177821</v>
+        <v>177477</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9045095726276488</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8505530553212991</v>
+        <v>0.8457325431346786</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9420404362240645</v>
+        <v>0.9402162128873303</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>24113</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14748</v>
+        <v>14821</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36234</v>
+        <v>35764</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1393935506999079</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08525428093982126</v>
+        <v>0.08567648502554663</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2094606811679369</v>
+        <v>0.2067440433265745</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -981,19 +981,19 @@
         <v>20413</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13010</v>
+        <v>13039</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30102</v>
+        <v>30738</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09559141213294899</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06092369825591472</v>
+        <v>0.06106109006896444</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1409669416701712</v>
+        <v>0.1439426482957822</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>38</v>
@@ -1002,19 +1002,19 @@
         <v>44526</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>33050</v>
+        <v>32639</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>61168</v>
+        <v>61525</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1151945502792309</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08550593009797258</v>
+        <v>0.0844405821969193</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1582499296588047</v>
+        <v>0.1591748499306457</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>148873</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>136752</v>
+        <v>137222</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>158238</v>
+        <v>158165</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8606064493000921</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7905393188320627</v>
+        <v>0.7932559566734253</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9147457190601787</v>
+        <v>0.9143235149744533</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>174</v>
@@ -1052,19 +1052,19 @@
         <v>193128</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>183439</v>
+        <v>182803</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>200531</v>
+        <v>200502</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.904408587867051</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8590330583298287</v>
+        <v>0.8560573517042182</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9390763017440851</v>
+        <v>0.9389389099310359</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>307</v>
@@ -1073,19 +1073,19 @@
         <v>342001</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>325359</v>
+        <v>325002</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>353477</v>
+        <v>353888</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8848054497207691</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.841750070341195</v>
+        <v>0.8408251500693542</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9144940699020274</v>
+        <v>0.9155594178030806</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>9219</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4125</v>
+        <v>4119</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17391</v>
+        <v>17413</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08173191519130332</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03656952031776322</v>
+        <v>0.03651925087141632</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1541821621686244</v>
+        <v>0.15437560860386</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -1198,19 +1198,19 @@
         <v>13312</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7173</v>
+        <v>7286</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21945</v>
+        <v>22301</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08936648476715257</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04815531436117047</v>
+        <v>0.04891571722090948</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.147323444649002</v>
+        <v>0.1497121906092453</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -1219,19 +1219,19 @@
         <v>22531</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14421</v>
+        <v>14170</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34871</v>
+        <v>35104</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08607658828323426</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05509348965561212</v>
+        <v>0.05413365996249909</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1332220776341145</v>
+        <v>0.1341131779591804</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>103576</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>95404</v>
+        <v>95382</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>108670</v>
+        <v>108676</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9182680848086967</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8458178378313757</v>
+        <v>0.84562439139614</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9634304796822367</v>
+        <v>0.9634807491285836</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>126</v>
@@ -1269,19 +1269,19 @@
         <v>135646</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>127013</v>
+        <v>126657</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>141785</v>
+        <v>141672</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9106335152328474</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8526765553509982</v>
+        <v>0.8502878093907547</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9518446856388295</v>
+        <v>0.9510842827790905</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>226</v>
@@ -1290,19 +1290,19 @@
         <v>239221</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>226881</v>
+        <v>226648</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>247331</v>
+        <v>247582</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9139234117167657</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8667779223658856</v>
+        <v>0.8658868220408199</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.944906510344388</v>
+        <v>0.9458663400375016</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>10919</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5331</v>
+        <v>5398</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20148</v>
+        <v>19898</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0788531807271967</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03849919973716956</v>
+        <v>0.03898503005055214</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1455055353810579</v>
+        <v>0.143698102339344</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -1415,19 +1415,19 @@
         <v>14699</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8834</v>
+        <v>8253</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22816</v>
+        <v>23277</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09215587568265941</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05538646649506063</v>
+        <v>0.05173967752205999</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1430404924861725</v>
+        <v>0.1459308268864195</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -1436,19 +1436,19 @@
         <v>25618</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16026</v>
+        <v>16410</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>36427</v>
+        <v>36663</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08597403214771493</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05378278188863148</v>
+        <v>0.05507083129720542</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1222460991638424</v>
+        <v>0.1230381370984434</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>127553</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>118324</v>
+        <v>118574</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>133141</v>
+        <v>133074</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9211468192728033</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8544944646189416</v>
+        <v>0.856301897660656</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9615008002628304</v>
+        <v>0.9610149699494479</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>140</v>
@@ -1486,19 +1486,19 @@
         <v>144806</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>136689</v>
+        <v>136228</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>150671</v>
+        <v>151252</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9078441243173406</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8569595075138275</v>
+        <v>0.8540691731135805</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9446135335049394</v>
+        <v>0.94826032247794</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>255</v>
@@ -1507,19 +1507,19 @@
         <v>272359</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>261550</v>
+        <v>261314</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>281951</v>
+        <v>281567</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9140259678522851</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8777539008361576</v>
+        <v>0.8769618629015565</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9462172181113685</v>
+        <v>0.9449291687027944</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>6298</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2201</v>
+        <v>2195</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12877</v>
+        <v>12608</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08158859941991449</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0285170525685182</v>
+        <v>0.02843252820687152</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1668139439202141</v>
+        <v>0.1633340913963906</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1632,19 +1632,19 @@
         <v>6566</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2292</v>
+        <v>3133</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13079</v>
+        <v>13399</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07331838337986606</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02559181769975011</v>
+        <v>0.03498765186504572</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1460454467799513</v>
+        <v>0.1496264232442263</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -1653,19 +1653,19 @@
         <v>12864</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7382</v>
+        <v>6313</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22163</v>
+        <v>20492</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07714700046934876</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04427263988137351</v>
+        <v>0.03786155771757529</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.132910507383611</v>
+        <v>0.1228916390725321</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>70896</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>64317</v>
+        <v>64586</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>74993</v>
+        <v>74999</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9184114005800855</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8331860560797856</v>
+        <v>0.8366659086036106</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9714829474314818</v>
+        <v>0.971567471793129</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>80</v>
@@ -1703,19 +1703,19 @@
         <v>82987</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>76474</v>
+        <v>76154</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>87261</v>
+        <v>86420</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9266816166201339</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8539545532200477</v>
+        <v>0.8503735767557737</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9744081823002496</v>
+        <v>0.9650123481349542</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>142</v>
@@ -1724,19 +1724,19 @@
         <v>153884</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>144585</v>
+        <v>146256</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>159366</v>
+        <v>160435</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9228529995306513</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8670894926163897</v>
+        <v>0.8771083609274679</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9557273601186265</v>
+        <v>0.9621384422824247</v>
       </c>
     </row>
     <row r="18">
@@ -1828,19 +1828,19 @@
         <v>10271</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5175</v>
+        <v>5126</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17512</v>
+        <v>17695</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09532410108926018</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04802951268906292</v>
+        <v>0.0475713692779586</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1625289941929235</v>
+        <v>0.1642267400329502</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -1849,19 +1849,19 @@
         <v>6292</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2152</v>
+        <v>2118</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11660</v>
+        <v>12664</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04845035238817449</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01657025547025279</v>
+        <v>0.01631219364075766</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08979010012508745</v>
+        <v>0.09751520218318788</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -1870,19 +1870,19 @@
         <v>16563</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9481</v>
+        <v>9414</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>25766</v>
+        <v>26112</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06970600155934538</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03990311373478383</v>
+        <v>0.03962045959065544</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1084377797160916</v>
+        <v>0.1098937279083049</v>
       </c>
     </row>
     <row r="20">
@@ -1899,19 +1899,19 @@
         <v>97478</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>90237</v>
+        <v>90054</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>102574</v>
+        <v>102623</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9046758989107399</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8374710058070766</v>
+        <v>0.8357732599670499</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.951970487310937</v>
+        <v>0.9524286307220414</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>120</v>
@@ -1920,19 +1920,19 @@
         <v>123571</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>118203</v>
+        <v>117199</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>127711</v>
+        <v>127745</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9515496476118255</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9102098998749129</v>
+        <v>0.9024847978168125</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9834297445297475</v>
+        <v>0.9836878063592424</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>212</v>
@@ -1941,19 +1941,19 @@
         <v>221049</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>211846</v>
+        <v>211500</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>228131</v>
+        <v>228198</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9302939984406546</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8915622202839076</v>
+        <v>0.8901062720916948</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9600968862652159</v>
+        <v>0.9603795404093446</v>
       </c>
     </row>
     <row r="21">
@@ -2045,19 +2045,19 @@
         <v>17974</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10538</v>
+        <v>10488</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28555</v>
+        <v>29264</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07543330743524521</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04422516173647677</v>
+        <v>0.04401722156450313</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1198420118619212</v>
+        <v>0.1228175622820194</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -2066,19 +2066,19 @@
         <v>22665</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13622</v>
+        <v>13386</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>34385</v>
+        <v>34860</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07654905868264097</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04600621137943758</v>
+        <v>0.04521152316878336</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1161349654720984</v>
+        <v>0.1177371422525504</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>34</v>
@@ -2087,19 +2087,19 @@
         <v>40638</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>28655</v>
+        <v>29400</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>56207</v>
+        <v>58938</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07605153229202583</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05362501521775945</v>
+        <v>0.05501958693990255</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1051875015980443</v>
+        <v>0.1102979399088856</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>220301</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>209720</v>
+        <v>209011</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>227737</v>
+        <v>227787</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9245666925647548</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8801579881380786</v>
+        <v>0.8771824377179808</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9557748382635232</v>
+        <v>0.9559827784354969</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>243</v>
@@ -2137,19 +2137,19 @@
         <v>273415</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>261695</v>
+        <v>261220</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>282458</v>
+        <v>282694</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9234509413173591</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8838650345279017</v>
+        <v>0.8822628577474495</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9539937886205625</v>
+        <v>0.9547884768312169</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>441</v>
@@ -2158,19 +2158,19 @@
         <v>493716</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>478147</v>
+        <v>475416</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>505699</v>
+        <v>504954</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9239484677079742</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8948124984019558</v>
+        <v>0.8897020600911144</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9463749847822406</v>
+        <v>0.9449804130600971</v>
       </c>
     </row>
     <row r="24">
@@ -2262,19 +2262,19 @@
         <v>28008</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>18854</v>
+        <v>18479</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>40200</v>
+        <v>40258</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1072755251446808</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07221394403758695</v>
+        <v>0.07077838759939857</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.153974425223954</v>
+        <v>0.1541969871947464</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>14</v>
@@ -2283,19 +2283,19 @@
         <v>15045</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8606</v>
+        <v>8544</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>25021</v>
+        <v>23976</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04604845855071026</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02634053058162454</v>
+        <v>0.02615008641630146</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07658293853584713</v>
+        <v>0.07338575965742795</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>38</v>
@@ -2304,19 +2304,19 @@
         <v>43052</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>31395</v>
+        <v>31723</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>57467</v>
+        <v>59486</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0732437615229897</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05341092815083293</v>
+        <v>0.05397006623947771</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09776646671027592</v>
+        <v>0.1012023323210361</v>
       </c>
     </row>
     <row r="26">
@@ -2333,19 +2333,19 @@
         <v>233074</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>220882</v>
+        <v>220824</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>242228</v>
+        <v>242603</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8927244748553191</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.846025574776046</v>
+        <v>0.8458030128052535</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.927786055962413</v>
+        <v>0.9292216124006014</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>283</v>
@@ -2354,19 +2354,19 @@
         <v>311669</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>301693</v>
+        <v>302738</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>318108</v>
+        <v>318170</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9539515414492897</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9234170614641531</v>
+        <v>0.926614240342572</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9736594694183754</v>
+        <v>0.9738499135836985</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>489</v>
@@ -2375,19 +2375,19 @@
         <v>544744</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>530329</v>
+        <v>528310</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>556401</v>
+        <v>556073</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9267562384770103</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9022335332897241</v>
+        <v>0.8987976676789643</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9465890718491671</v>
+        <v>0.9460299337605224</v>
       </c>
     </row>
     <row r="27">
@@ -2479,19 +2479,19 @@
         <v>113757</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>91431</v>
+        <v>93705</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>134591</v>
+        <v>137880</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0952695920274603</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07657237801550149</v>
+        <v>0.07847691551996094</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1127179516349354</v>
+        <v>0.115472612613822</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>100</v>
@@ -2500,19 +2500,19 @@
         <v>110061</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>89927</v>
+        <v>89627</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>133601</v>
+        <v>133429</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07500015745312491</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06128007987945324</v>
+        <v>0.06107576446360016</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09104119094736039</v>
+        <v>0.09092387653659173</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>198</v>
@@ -2521,19 +2521,19 @@
         <v>223818</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>194688</v>
+        <v>195558</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>254328</v>
+        <v>254806</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08409368807800115</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07314892411682634</v>
+        <v>0.07347567468646375</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09555706054319056</v>
+        <v>0.09573680453268132</v>
       </c>
     </row>
     <row r="29">
@@ -2550,19 +2550,19 @@
         <v>1080292</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1059458</v>
+        <v>1056169</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1102618</v>
+        <v>1100344</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9047304079725397</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8872820483650646</v>
+        <v>0.8845273873861781</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9234276219844987</v>
+        <v>0.9215230844800391</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1249</v>
@@ -2571,19 +2571,19 @@
         <v>1357419</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1333879</v>
+        <v>1334051</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1377553</v>
+        <v>1377853</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9249998425468751</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9089588090526395</v>
+        <v>0.909076123463408</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9387199201205467</v>
+        <v>0.9389242355363996</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2227</v>
@@ -2592,19 +2592,19 @@
         <v>2437710</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2407200</v>
+        <v>2406722</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2466840</v>
+        <v>2465970</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9159063119219989</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9044429394568095</v>
+        <v>0.9042631954673187</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9268510758831736</v>
+        <v>0.9265243253135363</v>
       </c>
     </row>
     <row r="30">
@@ -2940,19 +2940,19 @@
         <v>24163</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16146</v>
+        <v>16268</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34175</v>
+        <v>34520</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2291858795329366</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1531437595650561</v>
+        <v>0.1543054433487974</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3241568788626264</v>
+        <v>0.3274301891290233</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -2961,19 +2961,19 @@
         <v>16912</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9928</v>
+        <v>10233</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25742</v>
+        <v>26494</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.156776854802116</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09203497648499168</v>
+        <v>0.09486142658283116</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2386337499858177</v>
+        <v>0.2456025861758316</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>38</v>
@@ -2982,19 +2982,19 @@
         <v>41075</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>29794</v>
+        <v>30986</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>53425</v>
+        <v>55036</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1925661672243104</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1396779634738706</v>
+        <v>0.1452682109494227</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2504652843455246</v>
+        <v>0.2580173044921638</v>
       </c>
     </row>
     <row r="5">
@@ -3011,19 +3011,19 @@
         <v>81265</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>71253</v>
+        <v>70908</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>89282</v>
+        <v>89160</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7708141204670633</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.675843121137374</v>
+        <v>0.6725698108709767</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.846856240434944</v>
+        <v>0.8456945566512026</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>81</v>
@@ -3032,19 +3032,19 @@
         <v>90962</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>82132</v>
+        <v>81380</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>97946</v>
+        <v>97641</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.843223145197884</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7613662500141822</v>
+        <v>0.7543974138241685</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9079650235150083</v>
+        <v>0.9051385734171687</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>158</v>
@@ -3053,19 +3053,19 @@
         <v>172228</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>159878</v>
+        <v>158267</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>183509</v>
+        <v>182317</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8074338327756896</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7495347156544755</v>
+        <v>0.7419826955078362</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8603220365261297</v>
+        <v>0.8547317890505773</v>
       </c>
     </row>
     <row r="6">
@@ -3157,19 +3157,19 @@
         <v>11204</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5962</v>
+        <v>5567</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19452</v>
+        <v>19227</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0534780682533474</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02845516756378575</v>
+        <v>0.02657279442209532</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09284534938255642</v>
+        <v>0.09176886424376686</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -3178,19 +3178,19 @@
         <v>6731</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2630</v>
+        <v>2350</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14517</v>
+        <v>13571</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0278032558181979</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01086101423905256</v>
+        <v>0.009708118655885709</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05995993198134304</v>
+        <v>0.05605166144474201</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -3199,19 +3199,19 @@
         <v>17936</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10914</v>
+        <v>10694</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29018</v>
+        <v>27762</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03971420140893599</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02416638378688151</v>
+        <v>0.02367838907250664</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06425260377636077</v>
+        <v>0.06147203574124604</v>
       </c>
     </row>
     <row r="8">
@@ -3228,19 +3228,19 @@
         <v>198311</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>190063</v>
+        <v>190288</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>203553</v>
+        <v>203948</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9465219317466526</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9071546506174434</v>
+        <v>0.9082311357562329</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.971544832436214</v>
+        <v>0.9734272055779045</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>200</v>
@@ -3249,19 +3249,19 @@
         <v>235377</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>227591</v>
+        <v>228537</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>239478</v>
+        <v>239758</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9721967441818021</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9400400680186576</v>
+        <v>0.9439483385552582</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9891389857609506</v>
+        <v>0.9902918813441143</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>388</v>
@@ -3270,19 +3270,19 @@
         <v>433687</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>422605</v>
+        <v>423861</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>440709</v>
+        <v>440929</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.960285798591064</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9357473962236396</v>
+        <v>0.9385279642587541</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9758336162131187</v>
+        <v>0.9763216109274934</v>
       </c>
     </row>
     <row r="9">
@@ -3374,19 +3374,19 @@
         <v>21682</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13980</v>
+        <v>14556</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30202</v>
+        <v>31470</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.151931528538001</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09796024376505617</v>
+        <v>0.101999824650708</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2116338282199137</v>
+        <v>0.2205188316022035</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -3395,19 +3395,19 @@
         <v>19952</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12386</v>
+        <v>12065</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32559</v>
+        <v>32398</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1255232216248822</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07792291121781468</v>
+        <v>0.07589970702417653</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2048345345345604</v>
+        <v>0.2038200065995264</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>39</v>
@@ -3416,19 +3416,19 @@
         <v>41635</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>29171</v>
+        <v>30912</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>54613</v>
+        <v>55362</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1380163416745521</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09670187865046086</v>
+        <v>0.1024729414080039</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1810376449954821</v>
+        <v>0.1835207499081289</v>
       </c>
     </row>
     <row r="11">
@@ -3445,19 +3445,19 @@
         <v>121028</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>112508</v>
+        <v>111240</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>128730</v>
+        <v>128154</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8480684714619989</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7883661717800863</v>
+        <v>0.7794811683977965</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9020397562349439</v>
+        <v>0.898000175349292</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>126</v>
@@ -3466,19 +3466,19 @@
         <v>139002</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>126395</v>
+        <v>126556</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>146568</v>
+        <v>146889</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8744767783751177</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7951654654654394</v>
+        <v>0.7961799934004735</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9220770887821853</v>
+        <v>0.9241002929758237</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>253</v>
@@ -3487,19 +3487,19 @@
         <v>260029</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>247051</v>
+        <v>246302</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>272493</v>
+        <v>270752</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8619836583254479</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8189623550045176</v>
+        <v>0.8164792500918711</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9032981213495391</v>
+        <v>0.8975270585919961</v>
       </c>
     </row>
     <row r="12">
@@ -3591,19 +3591,19 @@
         <v>26838</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17519</v>
+        <v>17453</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>36026</v>
+        <v>37097</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1638228882442748</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1069380027495728</v>
+        <v>0.1065372220356126</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2199090079506267</v>
+        <v>0.2264462665937879</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -3612,19 +3612,19 @@
         <v>20421</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12755</v>
+        <v>12789</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31302</v>
+        <v>31290</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1097716703886109</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06856269553068903</v>
+        <v>0.06874576047002283</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1682609551332016</v>
+        <v>0.1681966552897454</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>44</v>
@@ -3633,19 +3633,19 @@
         <v>47259</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>35431</v>
+        <v>35009</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>62418</v>
+        <v>61207</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1350812564881519</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1012741519930656</v>
+        <v>0.1000666851515544</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1784115363573575</v>
+        <v>0.1749477503401795</v>
       </c>
     </row>
     <row r="14">
@@ -3662,19 +3662,19 @@
         <v>136983</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>127795</v>
+        <v>126724</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>146302</v>
+        <v>146368</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8361771117557252</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.780090992049373</v>
+        <v>0.7735537334062121</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8930619972504269</v>
+        <v>0.8934627779643873</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>144</v>
@@ -3683,19 +3683,19 @@
         <v>165614</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>154733</v>
+        <v>154745</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>173280</v>
+        <v>173246</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8902283296113891</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8317390448667981</v>
+        <v>0.8318033447102545</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9314373044693109</v>
+        <v>0.931254239529977</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>278</v>
@@ -3704,19 +3704,19 @@
         <v>302597</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>287438</v>
+        <v>288649</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>314425</v>
+        <v>314847</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8649187435118481</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8215884636426423</v>
+        <v>0.8250522496598205</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8987258480069342</v>
+        <v>0.8999333148484456</v>
       </c>
     </row>
     <row r="15">
@@ -3808,19 +3808,19 @@
         <v>2972</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8027</v>
+        <v>7924</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03412090422446142</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01095399500790132</v>
+        <v>0.01084941199298098</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09216470762855608</v>
+        <v>0.09098527676554992</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -3829,19 +3829,19 @@
         <v>3989</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1046</v>
+        <v>1029</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10016</v>
+        <v>9114</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03744263778226799</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009818225278929633</v>
+        <v>0.009653831878014128</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09400011885039944</v>
+        <v>0.0855369321828041</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -3850,19 +3850,19 @@
         <v>6961</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2906</v>
+        <v>2975</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13083</v>
+        <v>13681</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03594866390521796</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01500649672943202</v>
+        <v>0.01536490628020608</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06756520071897645</v>
+        <v>0.07065284127778226</v>
       </c>
     </row>
     <row r="17">
@@ -3879,19 +3879,19 @@
         <v>84118</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>79063</v>
+        <v>79166</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>86136</v>
+        <v>86145</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9658790957755385</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.907835292371444</v>
+        <v>0.90901472323445</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9890460049920987</v>
+        <v>0.9891505880070189</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>97</v>
@@ -3900,19 +3900,19 @@
         <v>102559</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>96532</v>
+        <v>97434</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>105502</v>
+        <v>105519</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.962557362217732</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9059998811496006</v>
+        <v>0.914463067817196</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9901817747210704</v>
+        <v>0.9903461681219859</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>183</v>
@@ -3921,19 +3921,19 @@
         <v>186678</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>180556</v>
+        <v>179958</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>190733</v>
+        <v>190664</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.964051336094782</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9324347992810235</v>
+        <v>0.9293471587222177</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.984993503270568</v>
+        <v>0.984635093719794</v>
       </c>
     </row>
     <row r="18">
@@ -4025,19 +4025,19 @@
         <v>10387</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5433</v>
+        <v>5385</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17724</v>
+        <v>18409</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09080248860433732</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04749583966464872</v>
+        <v>0.04708107793009494</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1549521742856126</v>
+        <v>0.1609344943461057</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -4046,19 +4046,19 @@
         <v>8605</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4103</v>
+        <v>4212</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16772</v>
+        <v>17187</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06368749106388567</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03036670103932638</v>
+        <v>0.03117311058454204</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1241389065129372</v>
+        <v>0.1272104661379456</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>18</v>
@@ -4067,19 +4067,19 @@
         <v>18991</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11346</v>
+        <v>11672</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>28263</v>
+        <v>29536</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07611893905714208</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04547673639511595</v>
+        <v>0.04678438785098178</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1132813554319557</v>
+        <v>0.1183811793304069</v>
       </c>
     </row>
     <row r="20">
@@ -4096,19 +4096,19 @@
         <v>103999</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>96662</v>
+        <v>95977</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>108953</v>
+        <v>109001</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9091975113956626</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8450478257143874</v>
+        <v>0.8390655056538943</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9525041603353513</v>
+        <v>0.9529189220699051</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>114</v>
@@ -4117,19 +4117,19 @@
         <v>126504</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>118337</v>
+        <v>117922</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>131006</v>
+        <v>130897</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9363125089361143</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8758610934870636</v>
+        <v>0.8727895338620546</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9696332989606736</v>
+        <v>0.9688268894154579</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>217</v>
@@ -4138,19 +4138,19 @@
         <v>230504</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>221232</v>
+        <v>219959</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>238149</v>
+        <v>237823</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9238810609428579</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8867186445680444</v>
+        <v>0.8816188206695931</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9545232636048842</v>
+        <v>0.9532156121490183</v>
       </c>
     </row>
     <row r="21">
@@ -4242,19 +4242,19 @@
         <v>41217</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>30351</v>
+        <v>30829</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>54735</v>
+        <v>55301</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1573599181666175</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1158747156654988</v>
+        <v>0.1176982800298748</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2089702419601572</v>
+        <v>0.2111308704793491</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>25</v>
@@ -4263,19 +4263,19 @@
         <v>29218</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>18268</v>
+        <v>18922</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>40881</v>
+        <v>41722</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1011349892702214</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06323168005398055</v>
+        <v>0.06549770393083561</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1415042678098306</v>
+        <v>0.1444152000210187</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>64</v>
@@ -4284,19 +4284,19 @@
         <v>70435</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>56957</v>
+        <v>54092</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>88316</v>
+        <v>86377</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1278707978791632</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1034017284838011</v>
+        <v>0.0982007523653103</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1603323130867487</v>
+        <v>0.1568118479983025</v>
       </c>
     </row>
     <row r="23">
@@ -4313,19 +4313,19 @@
         <v>220712</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>207194</v>
+        <v>206628</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>231578</v>
+        <v>231100</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8426400818333825</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7910297580398428</v>
+        <v>0.7888691295206512</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8841252843345012</v>
+        <v>0.8823017199701256</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>224</v>
@@ -4334,19 +4334,19 @@
         <v>259685</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>248022</v>
+        <v>247181</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>270635</v>
+        <v>269981</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8988650107297786</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8584957321901694</v>
+        <v>0.8555847999789822</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9367683199460189</v>
+        <v>0.9345022960691645</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>418</v>
@@ -4355,19 +4355,19 @@
         <v>480397</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>462516</v>
+        <v>464455</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>493875</v>
+        <v>496740</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8721292021208368</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8396676869132514</v>
+        <v>0.8431881520016975</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.896598271516199</v>
+        <v>0.9017992476346898</v>
       </c>
     </row>
     <row r="24">
@@ -4459,19 +4459,19 @@
         <v>26406</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>17716</v>
+        <v>18235</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>37958</v>
+        <v>39497</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08392229763977155</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05630472626032409</v>
+        <v>0.05795290964371205</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1206365511378919</v>
+        <v>0.125528683749065</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -4480,19 +4480,19 @@
         <v>13470</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7471</v>
+        <v>7542</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>22406</v>
+        <v>22780</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03637756822883693</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02017764275920996</v>
+        <v>0.02036832870143977</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06051237314904114</v>
+        <v>0.06152077984446874</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>35</v>
@@ -4501,19 +4501,19 @@
         <v>39876</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>28619</v>
+        <v>28277</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>54437</v>
+        <v>53180</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05821921534200631</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04178471435722763</v>
+        <v>0.04128552872352848</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07947921815318282</v>
+        <v>0.07764345892016203</v>
       </c>
     </row>
     <row r="26">
@@ -4530,19 +4530,19 @@
         <v>288241</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>276689</v>
+        <v>275150</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>296931</v>
+        <v>296412</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9160777023602285</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8793634488621069</v>
+        <v>0.8744713162509347</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9436952737396758</v>
+        <v>0.9420470903562876</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>298</v>
@@ -4551,19 +4551,19 @@
         <v>356804</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>347868</v>
+        <v>347494</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>362803</v>
+        <v>362732</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.963622431771163</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.939487626850959</v>
+        <v>0.9384792201555315</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.97982235724079</v>
+        <v>0.9796316712985602</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>581</v>
@@ -4572,19 +4572,19 @@
         <v>645045</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>630484</v>
+        <v>631741</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>656302</v>
+        <v>656644</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9417807846579936</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9205207818468171</v>
+        <v>0.9223565410798379</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9582152856427723</v>
+        <v>0.9587144712764715</v>
       </c>
     </row>
     <row r="27">
@@ -4676,19 +4676,19 @@
         <v>164868</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>143016</v>
+        <v>141537</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>190000</v>
+        <v>190243</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1178027334112104</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1021887436950379</v>
+        <v>0.1011323362788182</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1357601099904893</v>
+        <v>0.1359336836774408</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>103</v>
@@ -4697,19 +4697,19 @@
         <v>119300</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>96321</v>
+        <v>98869</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>141941</v>
+        <v>142221</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07475816981290084</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06035873117363024</v>
+        <v>0.06195570227470121</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08894612539775527</v>
+        <v>0.0891214802093461</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>262</v>
@@ -4718,19 +4718,19 @@
         <v>284168</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>252487</v>
+        <v>253205</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>322302</v>
+        <v>318844</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09487012887310584</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08429354105189769</v>
+        <v>0.08453321314773669</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1076014436264689</v>
+        <v>0.1064468507647087</v>
       </c>
     </row>
     <row r="29">
@@ -4747,19 +4747,19 @@
         <v>1234658</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1209526</v>
+        <v>1209283</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1256510</v>
+        <v>1257989</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8821972665887895</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.864239890009511</v>
+        <v>0.8640663163225593</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8978112563049623</v>
+        <v>0.8988676637211821</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1284</v>
@@ -4768,19 +4768,19 @@
         <v>1476506</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1453865</v>
+        <v>1453585</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1499485</v>
+        <v>1496937</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9252418301870992</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9110538746022447</v>
+        <v>0.9108785197906539</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9396412688263697</v>
+        <v>0.938044297725299</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2476</v>
@@ -4789,19 +4789,19 @@
         <v>2711164</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2673030</v>
+        <v>2676488</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2742845</v>
+        <v>2742127</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9051298711268941</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8923985563735312</v>
+        <v>0.8935531492352913</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9157064589481023</v>
+        <v>0.9154667868522635</v>
       </c>
     </row>
     <row r="30">
@@ -5137,19 +5137,19 @@
         <v>73539</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>63929</v>
+        <v>64086</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>83274</v>
+        <v>83924</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5311330553912802</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4617273423349704</v>
+        <v>0.4628606653513805</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6014453074727372</v>
+        <v>0.6061436833591201</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>75</v>
@@ -5158,19 +5158,19 @@
         <v>36670</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>30005</v>
+        <v>29937</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43766</v>
+        <v>44039</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2723125868581847</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2228156180583495</v>
+        <v>0.2223077602335401</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.325006124504475</v>
+        <v>0.3270347805102946</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>169</v>
@@ -5179,19 +5179,19 @@
         <v>110209</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>97039</v>
+        <v>96727</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>122402</v>
+        <v>122678</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4035200948122041</v>
+        <v>0.4035200948122042</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.355297530087676</v>
+        <v>0.3541560190181157</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4481638594967559</v>
+        <v>0.4491756885216548</v>
       </c>
     </row>
     <row r="5">
@@ -5208,19 +5208,19 @@
         <v>64917</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>55182</v>
+        <v>54532</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>74527</v>
+        <v>74370</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4688669446087197</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3985546925272628</v>
+        <v>0.3938563166408799</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5382726576650296</v>
+        <v>0.5371393346486195</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>200</v>
@@ -5229,19 +5229,19 @@
         <v>97993</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>90897</v>
+        <v>90624</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>104658</v>
+        <v>104726</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7276874131418153</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.674993875495525</v>
+        <v>0.6729652194897053</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7771843819416506</v>
+        <v>0.7776922397664596</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>282</v>
@@ -5250,19 +5250,19 @@
         <v>162910</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>150717</v>
+        <v>150441</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>176080</v>
+        <v>176392</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5964799051877959</v>
+        <v>0.596479905187796</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5518361405032443</v>
+        <v>0.5508243114783451</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.644702469912324</v>
+        <v>0.6458439809818841</v>
       </c>
     </row>
     <row r="6">
@@ -5354,19 +5354,19 @@
         <v>66070</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>52710</v>
+        <v>53640</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>79800</v>
+        <v>80661</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.316319284116198</v>
+        <v>0.3163192841161979</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2523550304238069</v>
+        <v>0.2568084215560792</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.382053647954918</v>
+        <v>0.3861744103458145</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>66</v>
@@ -5375,19 +5375,19 @@
         <v>42176</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33527</v>
+        <v>33279</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52634</v>
+        <v>51739</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1703689393372524</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1354308785187726</v>
+        <v>0.134428030287974</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2126112222933378</v>
+        <v>0.208994795927419</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>128</v>
@@ -5396,19 +5396,19 @@
         <v>108247</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>93789</v>
+        <v>92457</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>126603</v>
+        <v>125126</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2371586457700445</v>
+        <v>0.2371586457700446</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2054842336307552</v>
+        <v>0.2025653818016653</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2773755536021276</v>
+        <v>0.2741398753592895</v>
       </c>
     </row>
     <row r="8">
@@ -5425,19 +5425,19 @@
         <v>142802</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>129072</v>
+        <v>128211</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>156162</v>
+        <v>155232</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6836807158838019</v>
+        <v>0.6836807158838022</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6179463520450823</v>
+        <v>0.6138255896541851</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7476449695761932</v>
+        <v>0.7431915784439208</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>320</v>
@@ -5446,19 +5446,19 @@
         <v>205383</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>194925</v>
+        <v>195820</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>214032</v>
+        <v>214280</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8296310606627475</v>
+        <v>0.8296310606627477</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7873887777066623</v>
+        <v>0.7910052040725809</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8645691214812276</v>
+        <v>0.8655719697120261</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>456</v>
@@ -5467,19 +5467,19 @@
         <v>348184</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>329828</v>
+        <v>331305</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>362642</v>
+        <v>363974</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7628413542299555</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7226244463978725</v>
+        <v>0.725860124640711</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7945157663692449</v>
+        <v>0.7974346181983348</v>
       </c>
     </row>
     <row r="9">
@@ -5571,19 +5571,19 @@
         <v>55642</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>46281</v>
+        <v>46009</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>66405</v>
+        <v>66222</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3593753216822455</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2989125620789377</v>
+        <v>0.297155891000806</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4288917833113725</v>
+        <v>0.4277106919978247</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>103</v>
@@ -5592,19 +5592,19 @@
         <v>57202</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>48771</v>
+        <v>49652</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>67218</v>
+        <v>66479</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3430491896079205</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2924845049760448</v>
+        <v>0.2977709170785421</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4031160192218232</v>
+        <v>0.3986828733636192</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>183</v>
@@ -5613,19 +5613,19 @@
         <v>112844</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>98293</v>
+        <v>99928</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>126747</v>
+        <v>127677</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3509097513381549</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3056610667273754</v>
+        <v>0.3107445580583774</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3941429561791289</v>
+        <v>0.3970355996144788</v>
       </c>
     </row>
     <row r="11">
@@ -5642,19 +5642,19 @@
         <v>99188</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>88425</v>
+        <v>88608</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>108549</v>
+        <v>108821</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6406246783177546</v>
+        <v>0.6406246783177545</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5711082166886273</v>
+        <v>0.5722893080021753</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7010874379210623</v>
+        <v>0.7028441089991939</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>200</v>
@@ -5663,19 +5663,19 @@
         <v>109545</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>99529</v>
+        <v>100268</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>117976</v>
+        <v>117095</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6569508103920796</v>
+        <v>0.6569508103920797</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5968839807781765</v>
+        <v>0.6013171266363807</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7075154950239552</v>
+        <v>0.7022290829214578</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>338</v>
@@ -5684,19 +5684,19 @@
         <v>208732</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>194829</v>
+        <v>193899</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>223283</v>
+        <v>221648</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6490902486618451</v>
+        <v>0.6490902486618449</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6058570438208711</v>
+        <v>0.6029644003855212</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6943389332726246</v>
+        <v>0.6892554419416226</v>
       </c>
     </row>
     <row r="12">
@@ -5788,19 +5788,19 @@
         <v>59836</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>47378</v>
+        <v>47803</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>72600</v>
+        <v>72159</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3124085437676616</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2473652232196881</v>
+        <v>0.2495858567959648</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3790525605021476</v>
+        <v>0.376746342613056</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>123</v>
@@ -5809,19 +5809,19 @@
         <v>64206</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>54677</v>
+        <v>53633</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>74197</v>
+        <v>73925</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.309158145549094</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2632735559506011</v>
+        <v>0.2582451452097532</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3572637116324849</v>
+        <v>0.3559522119884543</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>196</v>
@@ -5830,19 +5830,19 @@
         <v>124042</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>107959</v>
+        <v>108581</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>140612</v>
+        <v>139737</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3107175985827694</v>
+        <v>0.3107175985827693</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2704312223889245</v>
+        <v>0.2719888310408702</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.352224309582011</v>
+        <v>0.3500322220815631</v>
       </c>
     </row>
     <row r="14">
@@ -5859,19 +5859,19 @@
         <v>131695</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>118931</v>
+        <v>119372</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>144153</v>
+        <v>143728</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6875914562323384</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6209474394978524</v>
+        <v>0.6232536573869443</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7526347767803121</v>
+        <v>0.7504141432040357</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>280</v>
@@ -5880,19 +5880,19 @@
         <v>143475</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>133484</v>
+        <v>133756</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>153004</v>
+        <v>154048</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6908418544509058</v>
+        <v>0.6908418544509061</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6427362883675148</v>
+        <v>0.6440477880115457</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7367264440493985</v>
+        <v>0.7417548547902469</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>412</v>
@@ -5901,19 +5901,19 @@
         <v>275170</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>258600</v>
+        <v>259475</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>291253</v>
+        <v>290631</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6892824014172306</v>
+        <v>0.6892824014172305</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6477756904179889</v>
+        <v>0.6499677779184367</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7295687776110753</v>
+        <v>0.7280111689591295</v>
       </c>
     </row>
     <row r="15">
@@ -6005,19 +6005,19 @@
         <v>13519</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9074</v>
+        <v>9011</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18781</v>
+        <v>18978</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1646847248092971</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1105280722853031</v>
+        <v>0.1097602459500427</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2287734365269461</v>
+        <v>0.2311828901089573</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>39</v>
@@ -6026,19 +6026,19 @@
         <v>14745</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10643</v>
+        <v>10746</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18859</v>
+        <v>19524</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1361651192616117</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09828334980299112</v>
+        <v>0.09923270335956547</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1741636141252211</v>
+        <v>0.1802992077178092</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>63</v>
@@ -6047,19 +6047,19 @@
         <v>28264</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22194</v>
+        <v>21684</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>34970</v>
+        <v>35073</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1484629884754625</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1165795066834851</v>
+        <v>0.1139001014612981</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.183687808765585</v>
+        <v>0.1842256131755635</v>
       </c>
     </row>
     <row r="17">
@@ -6076,19 +6076,19 @@
         <v>68574</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>63312</v>
+        <v>63115</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>73019</v>
+        <v>73082</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8353152751907028</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7712265634730538</v>
+        <v>0.7688171098910427</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.889471927714697</v>
+        <v>0.8902397540499578</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>243</v>
@@ -6097,19 +6097,19 @@
         <v>93541</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>89427</v>
+        <v>88762</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>97643</v>
+        <v>97540</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8638348807383883</v>
+        <v>0.8638348807383884</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8258363858747788</v>
+        <v>0.8197007922821907</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.901716650197009</v>
+        <v>0.9007672966404344</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>357</v>
@@ -6118,19 +6118,19 @@
         <v>162115</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>155409</v>
+        <v>155306</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>168185</v>
+        <v>168695</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8515370115245374</v>
+        <v>0.8515370115245376</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8163121912344148</v>
+        <v>0.8157743868244364</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8834204933165147</v>
+        <v>0.8860998985387015</v>
       </c>
     </row>
     <row r="18">
@@ -6222,19 +6222,19 @@
         <v>37837</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>30113</v>
+        <v>30090</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>46057</v>
+        <v>46052</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2869525664457494</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2283722592345103</v>
+        <v>0.2282030905477305</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3492931022416876</v>
+        <v>0.3492570978540174</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>63</v>
@@ -6243,19 +6243,19 @@
         <v>31029</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>24736</v>
+        <v>24412</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>38009</v>
+        <v>38084</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2355684089743752</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1877959843786539</v>
+        <v>0.1853356999095348</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2885627918039488</v>
+        <v>0.2891312680184644</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>127</v>
@@ -6264,19 +6264,19 @@
         <v>68866</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>58899</v>
+        <v>59154</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>78902</v>
+        <v>79262</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2612739003550303</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2234581147435874</v>
+        <v>0.2244253604365599</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2993493806564569</v>
+        <v>0.3007146723398105</v>
       </c>
     </row>
     <row r="20">
@@ -6293,19 +6293,19 @@
         <v>94021</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>85801</v>
+        <v>85806</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>101745</v>
+        <v>101768</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7130474335542507</v>
+        <v>0.7130474335542506</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6507068977583121</v>
+        <v>0.6507429021459826</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7716277407654898</v>
+        <v>0.7717969094522695</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>233</v>
@@ -6314,19 +6314,19 @@
         <v>100691</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>93711</v>
+        <v>93636</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>106984</v>
+        <v>107308</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7644315910256249</v>
+        <v>0.7644315910256247</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7114372081960513</v>
+        <v>0.7108687319815357</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.812204015621346</v>
+        <v>0.8146643000904651</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>401</v>
@@ -6335,19 +6335,19 @@
         <v>194712</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>184676</v>
+        <v>184316</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>204679</v>
+        <v>204424</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7387260996449696</v>
+        <v>0.7387260996449698</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7006506193435431</v>
+        <v>0.6992853276601894</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7765418852564129</v>
+        <v>0.7755746395634402</v>
       </c>
     </row>
     <row r="21">
@@ -6439,19 +6439,19 @@
         <v>124534</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>108343</v>
+        <v>106248</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>141925</v>
+        <v>141926</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.3702059066449268</v>
+        <v>0.3702059066449266</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3220733386159226</v>
+        <v>0.3158451311260163</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4219043540058497</v>
+        <v>0.4219080664226695</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>197</v>
@@ -6460,19 +6460,19 @@
         <v>135409</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>120812</v>
+        <v>119410</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>150331</v>
+        <v>149718</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3776151254099476</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3369080218428954</v>
+        <v>0.3329982034264982</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4192263462811338</v>
+        <v>0.4175184965145046</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>325</v>
@@ -6481,19 +6481,19 @@
         <v>259944</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>236106</v>
+        <v>238416</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>280729</v>
+        <v>283461</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3740288505967838</v>
+        <v>0.3740288505967837</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3397291453912419</v>
+        <v>0.3430532021832445</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4039368943306943</v>
+        <v>0.4078678589210383</v>
       </c>
     </row>
     <row r="23">
@@ -6510,19 +6510,19 @@
         <v>211858</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>194467</v>
+        <v>194466</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>228049</v>
+        <v>230144</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.6297940933550733</v>
+        <v>0.6297940933550732</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.578095645994151</v>
+        <v>0.5780919335773306</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6779266613840774</v>
+        <v>0.6841548688739838</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>325</v>
@@ -6531,19 +6531,19 @@
         <v>223182</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>208260</v>
+        <v>208873</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>237779</v>
+        <v>239181</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.6223848745900523</v>
+        <v>0.6223848745900522</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5807736537188664</v>
+        <v>0.5824815034854955</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6630919781571047</v>
+        <v>0.6670017965735028</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>542</v>
@@ -6552,19 +6552,19 @@
         <v>435039</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>414254</v>
+        <v>411522</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>458877</v>
+        <v>456567</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6259711494032162</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5960631056693056</v>
+        <v>0.5921321410789616</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6602708546087578</v>
+        <v>0.6569467978167554</v>
       </c>
     </row>
     <row r="24">
@@ -6656,19 +6656,19 @@
         <v>144487</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>127628</v>
+        <v>128785</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>160140</v>
+        <v>162617</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4128877074205573</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3647117403306412</v>
+        <v>0.3680166685824785</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4576185098536344</v>
+        <v>0.4646962407255321</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>234</v>
@@ -6677,19 +6677,19 @@
         <v>148563</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>132746</v>
+        <v>132350</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>164519</v>
+        <v>163548</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3749311363795135</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3350113205137153</v>
+        <v>0.3340123784127146</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4151973122080969</v>
+        <v>0.4127472051406286</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>424</v>
@@ -6698,19 +6698,19 @@
         <v>293051</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>270699</v>
+        <v>269808</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>314980</v>
+        <v>314947</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.392731879986876</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3627774764367627</v>
+        <v>0.3615830911247965</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4221200399186129</v>
+        <v>0.4220764878538113</v>
       </c>
     </row>
     <row r="26">
@@ -6727,19 +6727,19 @@
         <v>205456</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>189803</v>
+        <v>187326</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>222315</v>
+        <v>221158</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5871122925794426</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5423814901463656</v>
+        <v>0.5353037592744677</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.635288259669359</v>
+        <v>0.6319833314175215</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>367</v>
@@ -6748,19 +6748,19 @@
         <v>247679</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>231723</v>
+        <v>232694</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>263496</v>
+        <v>263892</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.6250688636204865</v>
+        <v>0.6250688636204866</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.584802687791903</v>
+        <v>0.5872527948593714</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6649886794862847</v>
+        <v>0.6659876215872855</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>603</v>
@@ -6769,19 +6769,19 @@
         <v>453134</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>431205</v>
+        <v>431238</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>475486</v>
+        <v>476377</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.607268120013124</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5778799600813871</v>
+        <v>0.5779235121461886</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6372225235632375</v>
+        <v>0.6384169088752035</v>
       </c>
     </row>
     <row r="27">
@@ -6873,19 +6873,19 @@
         <v>575464</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>541970</v>
+        <v>542010</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>613190</v>
+        <v>610919</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3610249966994436</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3400116420467126</v>
+        <v>0.3400366221814116</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3846923059837695</v>
+        <v>0.3832675934239288</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>900</v>
@@ -6894,19 +6894,19 @@
         <v>530002</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>502056</v>
+        <v>502066</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>561226</v>
+        <v>557958</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3026008882889175</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2866450142394491</v>
+        <v>0.2866508430085106</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3204276778498423</v>
+        <v>0.3185619539871126</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1615</v>
@@ -6915,19 +6915,19 @@
         <v>1105467</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1061428</v>
+        <v>1061900</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1151576</v>
+        <v>1150593</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3304375485872013</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3172737264085895</v>
+        <v>0.3174150669117179</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3442201189820771</v>
+        <v>0.343926444099361</v>
       </c>
     </row>
     <row r="29">
@@ -6944,19 +6944,19 @@
         <v>1018510</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>980784</v>
+        <v>983055</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1052004</v>
+        <v>1051964</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6389750033005565</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6153076940162308</v>
+        <v>0.6167324065760709</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6599883579532875</v>
+        <v>0.6599633778185883</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2168</v>
@@ -6965,19 +6965,19 @@
         <v>1221487</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1190263</v>
+        <v>1193531</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1249433</v>
+        <v>1249423</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6973991117110826</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6795723221501578</v>
+        <v>0.6814380460128876</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.713354985760551</v>
+        <v>0.7133491569914894</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3391</v>
@@ -6986,19 +6986,19 @@
         <v>2239996</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2193887</v>
+        <v>2194870</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2284035</v>
+        <v>2283563</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6695624514127988</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6557798810179229</v>
+        <v>0.6560735559006391</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6827262735914105</v>
+        <v>0.6825849330882822</v>
       </c>
     </row>
     <row r="30">
